--- a/Panels/parameter_estimates_Omega_PresenceAbsence_season.xlsx
+++ b/Panels/parameter_estimates_Omega_PresenceAbsence_season.xlsx
@@ -362,69 +362,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -467,7 +467,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -492,7 +492,7 @@
         <v>0.00490108890206691</v>
       </c>
       <c r="I3">
-        <v>0.2560539664698503</v>
+        <v>0.2560539664698504</v>
       </c>
       <c r="J3">
         <v>-0.1862179069246366</v>
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -587,16 +587,16 @@
         <v>-0.01820182462482623</v>
       </c>
       <c r="L5">
-        <v>0.1739001512956179</v>
+        <v>0.173900151295618</v>
       </c>
       <c r="M5">
-        <v>-0.2454992650282506</v>
+        <v>-0.2454992650282507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -639,7 +639,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -682,7 +682,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -725,14 +725,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
         <v>0.4088161302072877</v>
       </c>
       <c r="C9">
-        <v>0.2560539664698503</v>
+        <v>0.2560539664698504</v>
       </c>
       <c r="D9">
         <v>0.5582675410531508</v>
@@ -768,7 +768,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -811,7 +811,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -854,7 +854,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -867,7 +867,7 @@
         <v>0.148831804061704</v>
       </c>
       <c r="E12">
-        <v>0.1739001512956179</v>
+        <v>0.173900151295618</v>
       </c>
       <c r="F12">
         <v>-0.04045249903878916</v>
@@ -897,7 +897,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -910,7 +910,7 @@
         <v>-0.2408467947462885</v>
       </c>
       <c r="E13">
-        <v>-0.2454992650282506</v>
+        <v>-0.2454992650282507</v>
       </c>
       <c r="F13">
         <v>0.1063354279837184</v>
@@ -953,69 +953,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1028,7 +1028,7 @@
         <v>0.59621875</v>
       </c>
       <c r="E2">
-        <v>0.6155</v>
+        <v>0.6155000000000001</v>
       </c>
       <c r="F2">
         <v>0.4963125</v>
@@ -1040,7 +1040,7 @@
         <v>0.38703125</v>
       </c>
       <c r="I2">
-        <v>0.7134374999999999</v>
+        <v>0.7134375</v>
       </c>
       <c r="J2">
         <v>0.35784375</v>
@@ -1058,7 +1058,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1101,7 +1101,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1144,11 +1144,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.6155</v>
+        <v>0.6155000000000001</v>
       </c>
       <c r="C5">
         <v>0.6005625</v>
@@ -1187,7 +1187,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1230,7 +1230,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1273,7 +1273,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1316,11 +1316,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.7134374999999999</v>
+        <v>0.7134375</v>
       </c>
       <c r="C9">
         <v>0.63475</v>
@@ -1359,7 +1359,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1402,7 +1402,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -1445,7 +1445,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -1488,7 +1488,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -1544,69 +1544,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1649,7 +1649,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1692,7 +1692,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1735,7 +1735,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1778,7 +1778,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1821,7 +1821,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1864,7 +1864,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1907,7 +1907,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1950,7 +1950,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1993,7 +1993,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -2036,7 +2036,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -2079,7 +2079,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
